--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_12-34.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_12-34.xlsx
@@ -41,6 +41,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CYMBATEX 20 MG 30 CAPS.</t>
   </si>
   <si>
@@ -59,9 +68,6 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -71,9 +77,15 @@
     <t>DOSTINEX 0.5 MG 2 TABS.</t>
   </si>
   <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
     <t>HEALSEC 20MG 14 CAPS</t>
   </si>
   <si>
+    <t>HERO VITAMIN DROPS</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -90,9 +102,6 @@
   </si>
   <si>
     <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -756,17 +765,17 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c t="s" r="H5" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -774,7 +783,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -782,17 +791,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -800,7 +809,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -808,13 +817,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -840,11 +849,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -860,17 +869,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -878,7 +887,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -886,17 +895,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -904,7 +913,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -912,17 +921,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -938,17 +947,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>22.079999999999998</v>
+        <v>47</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -956,7 +965,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -964,17 +973,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -982,7 +991,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -990,17 +999,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1008,7 +1017,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1016,17 +1025,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>20</v>
+        <v>22.079999999999998</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1042,17 +1051,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1060,7 +1069,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1068,17 +1077,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1086,7 +1095,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1094,17 +1103,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1112,7 +1121,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1120,17 +1129,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1138,7 +1147,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1152,11 +1161,11 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1164,7 +1173,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1172,17 +1181,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1190,7 +1199,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1198,17 +1207,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1216,7 +1225,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1224,51 +1233,129 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="K24" s="10">
-        <v>805.08000000000004</v>
-      </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="24.75" customHeight="1">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c t="s" r="B24" s="7">
+        <v>40</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c t="s" r="H24" s="8">
+        <v>41</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9">
+        <v>20</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c t="s" r="N24" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="25.5" customHeight="1">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c t="s" r="B25" s="7">
+        <v>42</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c t="s" r="H25" s="8">
         <v>43</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c t="s" r="F25" s="12">
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9">
+        <v>48</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c t="s" r="N25" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" ht="24.75" customHeight="1">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c t="s" r="B26" s="7">
         <v>44</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c t="s" r="I25" s="14">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c t="s" r="H26" s="8">
         <v>45</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9">
+        <v>45</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c t="s" r="N26" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="26.25" customHeight="1">
+      <c r="K27" s="10">
+        <v>927.08000000000004</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="11">
+        <v>46</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c t="s" r="F28" s="12">
+        <v>47</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
+      <c t="s" r="I28" s="14">
+        <v>48</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="80">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1336,10 +1423,19 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:N28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
